--- a/StreamRes/ExcelTable/Excel/ItemsConfig.xlsx
+++ b/StreamRes/ExcelTable/Excel/ItemsConfig.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>ID</t>
   </si>
@@ -27,7 +27,7 @@
     <t>CanPickup</t>
   </si>
   <si>
-    <t>PosX</t>
+    <t>Pos</t>
   </si>
   <si>
     <t>PosY</t>
@@ -45,6 +45,9 @@
     <t>bool</t>
   </si>
   <si>
+    <t>Vector3</t>
+  </si>
+  <si>
     <t>float</t>
   </si>
   <si>
@@ -57,7 +60,7 @@
     <t>能否拾取</t>
   </si>
   <si>
-    <t>X轴坐标</t>
+    <t>位置坐标</t>
   </si>
   <si>
     <t>Y轴坐标</t>
@@ -69,7 +72,13 @@
     <t>xxx的相片</t>
   </si>
   <si>
+    <t>10,0,10</t>
+  </si>
+  <si>
     <t>yyy的相片</t>
+  </si>
+  <si>
+    <t>2,2,2</t>
   </si>
 </sst>
 </file>
@@ -1003,13 +1012,14 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="13.4444444444444" customWidth="1"/>
     <col min="3" max="3" width="13.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1046,30 +1056,30 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1077,13 +1087,13 @@
         <v>10001</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
       </c>
-      <c r="D4">
-        <v>0</v>
+      <c r="D4" t="s">
+        <v>18</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1097,13 +1107,13 @@
         <v>10002</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
       </c>
-      <c r="D5">
-        <v>0</v>
+      <c r="D5" t="s">
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>

--- a/StreamRes/ExcelTable/Excel/ItemsConfig.xlsx
+++ b/StreamRes/ExcelTable/Excel/ItemsConfig.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ID</t>
   </si>
@@ -30,12 +30,6 @@
     <t>Pos</t>
   </si>
   <si>
-    <t>PosY</t>
-  </si>
-  <si>
-    <t>PosZ</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -48,9 +42,6 @@
     <t>Vector3</t>
   </si>
   <si>
-    <t>float</t>
-  </si>
-  <si>
     <t>编号</t>
   </si>
   <si>
@@ -61,12 +52,6 @@
   </si>
   <si>
     <t>位置坐标</t>
-  </si>
-  <si>
-    <t>Y轴坐标</t>
-  </si>
-  <si>
-    <t>Z轴坐标</t>
   </si>
   <si>
     <t>xxx的相片</t>
@@ -1009,20 +994,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="13.4444444444444" customWidth="1"/>
     <col min="3" max="3" width="13.6666666666667" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1035,91 +1020,61 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
-        <v>10</v>
+      <c r="D3" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>10001</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>10002</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/StreamRes/ExcelTable/Excel/ItemsConfig.xlsx
+++ b/StreamRes/ExcelTable/Excel/ItemsConfig.xlsx
@@ -11,12 +11,15 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>Id</t>
+  </si>
   <si>
     <t>ID</t>
   </si>
@@ -54,16 +57,31 @@
     <t>位置坐标</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10001</t>
+  </si>
+  <si>
     <t>xxx的相片</t>
   </si>
   <si>
-    <t>10,0,10</t>
+    <t>True</t>
+  </si>
+  <si>
+    <t>(10.00, 0.00, 10.00)</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>10002</t>
   </si>
   <si>
     <t>yyy的相片</t>
   </si>
   <si>
-    <t>2,2,2</t>
+    <t>(2.00, 2.00, 2.00)</t>
   </si>
 </sst>
 </file>
@@ -81,7 +99,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -89,7 +106,6 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -97,14 +113,12 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -112,7 +126,6 @@
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -120,7 +133,6 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -128,7 +140,6 @@
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -136,7 +147,6 @@
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -144,14 +154,12 @@
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -159,7 +167,6 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -167,7 +174,6 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -175,14 +181,12 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -190,42 +194,36 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -534,153 +532,300 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="50">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="5" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="6" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="7" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="8" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="9" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="10" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="11" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="12" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="13" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="15" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="16" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="4" applyFill="1" borderId="5" applyBorder="1" xfId="17" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="18" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="5" applyFill="1" borderId="6" applyBorder="1" xfId="19" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="20" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="21" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="22" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="23" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="1" xfId="24" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="25" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="26" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="27" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="12" applyFill="1" borderId="0" applyBorder="1" xfId="28" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="29" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="30" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="31" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="32" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="33" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="34" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="35" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="36" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="37" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="38" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="39" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="40" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="41" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="42" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="43" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="44" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="45" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="46" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="47" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -994,87 +1139,97 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="3"/>
-  <cols>
-    <col min="2" max="2" width="13.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="13.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="49" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="49" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2">
+      <c r="A2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="49" t="s">
         <v>7</v>
       </c>
+      <c r="E2" s="49" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3">
+      <c r="A3" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="49" t="s">
         <v>11</v>
       </c>
+      <c r="E3" s="49" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>10001</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
+    <row r="4">
+      <c r="A4" s="49" t="s">
         <v>13</v>
       </c>
+      <c r="B4" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>10002</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
+    <row r="5">
+      <c r="A5" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1087,7 +1242,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1104,7 +1258,6 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>

--- a/StreamRes/ExcelTable/Excel/ItemsConfig.xlsx
+++ b/StreamRes/ExcelTable/Excel/ItemsConfig.xlsx
@@ -16,17 +16,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Id</t>
   </si>
   <si>
+    <t>Name</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>CanPickup</t>
   </si>
   <si>
@@ -48,9 +48,6 @@
     <t>编号</t>
   </si>
   <si>
-    <t>名字</t>
-  </si>
-  <si>
     <t>能否拾取</t>
   </si>
   <si>
@@ -60,28 +57,28 @@
     <t>1</t>
   </si>
   <si>
+    <t>xxx的相片</t>
+  </si>
+  <si>
     <t>10001</t>
   </si>
   <si>
-    <t>xxx的相片</t>
-  </si>
-  <si>
     <t>True</t>
   </si>
   <si>
-    <t>(10.00, 0.00, 10.00)</t>
+    <t>(0.00, 0.00, 0.00)</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
+    <t>yyy的相片</t>
+  </si>
+  <si>
     <t>10002</t>
   </si>
   <si>
-    <t>yyy的相片</t>
-  </si>
-  <si>
-    <t>(2.00, 2.00, 2.00)</t>
+    <t>(0.00, 2.00, 0.00)</t>
   </si>
 </sst>
 </file>
@@ -1169,10 +1166,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="49" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="49" t="s">
-        <v>6</v>
       </c>
       <c r="D2" s="49" t="s">
         <v>7</v>
@@ -1186,50 +1183,50 @@
         <v>0</v>
       </c>
       <c r="B3" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="D3" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="E3" s="49" t="s">
         <v>11</v>
-      </c>
-      <c r="E3" s="49" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="C4" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="D4" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="E4" s="49" t="s">
         <v>16</v>
-      </c>
-      <c r="E4" s="49" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="C5" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="D5" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="49" t="s">
         <v>20</v>
-      </c>
-      <c r="D5" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="49" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
